--- a/小组组员评分规则/设计阶段_小组分数评审.xlsx
+++ b/小组组员评分规则/设计阶段_小组分数评审.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\new-flappy-bird\小组组员评分规则\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B169A487-779B-495E-BDFA-1BA86515F4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A18CCA-B9AF-43E7-B4DE-16B1FE35C856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,21 +300,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,12 +612,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
@@ -631,7 +631,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -645,7 +645,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="16.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -704,7 +704,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
@@ -736,23 +736,23 @@
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="14">
         <f>9+SUM(D4:D12)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -814,13 +814,13 @@
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="48.6">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D24">
@@ -828,11 +828,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D25">
@@ -853,20 +853,20 @@
     </row>
     <row r="27" spans="1:4" ht="15.6">
       <c r="A27" s="2"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="16.2">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <f>9+SUM(D19:D26)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
@@ -875,12 +875,12 @@
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7"/>
@@ -916,7 +916,7 @@
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="13.8" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -930,8 +930,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -966,15 +966,18 @@
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="13">
         <f>9+SUM(D33:D39)</f>
         <v>8.9</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A30:D30"/>
@@ -982,9 +985,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
